--- a/data/income_statement/2digits/size/69_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/69_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>69-Legal and accounting activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>69-Legal and accounting activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,293 +841,333 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>481832.42638</v>
+        <v>537121.88715</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>485030.32189</v>
+        <v>557552.54811</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>605757.3825299999</v>
+        <v>665920.0044600001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>553658.94205</v>
+        <v>614255.6932100001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>495022.77046</v>
+        <v>554308.5501699999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>494669.74412</v>
+        <v>564405.8314</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>536289.63925</v>
+        <v>614147.4937100001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>575782.90337</v>
+        <v>656469.0862799999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>603034.2487100001</v>
+        <v>708820.1603299999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1073864.07086</v>
+        <v>1188575.61306</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1229263.00644</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1365126.6242</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1537553.719</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>434004.6546900001</v>
+        <v>485348.3262</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>449570.03373</v>
+        <v>516191.63088</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>552661.5046699999</v>
+        <v>606240.98398</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>511259.94657</v>
+        <v>564669.2008299999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>469773.51388</v>
+        <v>525159.57758</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>476091.5435</v>
+        <v>539020.4959600001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>511503.09178</v>
+        <v>586429.2555799999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>546318.6571599999</v>
+        <v>623757.34334</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>571686.5405700001</v>
+        <v>672289.9621600001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1023485.84053</v>
+        <v>1133813.54235</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1178668.57604</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1307875.82854</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1478493.916</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>29950.13884</v>
+        <v>31700.48322</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>24080.74859</v>
+        <v>26880.55729</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>40498.22788000001</v>
+        <v>43778.89513</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>28576.28597</v>
+        <v>32541.53977</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>13358.22466</v>
+        <v>14784.92302</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>7756.49003</v>
+        <v>11527.93929</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>11544.67835</v>
+        <v>12371.45496</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>14139.33633</v>
+        <v>14535.1718</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>12584.01031</v>
+        <v>13368.21991</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>21147.20323</v>
+        <v>21613.88659</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>17757.84033</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>20579.47471</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>17038.806</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>17877.63285</v>
+        <v>20073.07773</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>11379.53957</v>
+        <v>14480.35994</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>12597.64998</v>
+        <v>15900.12535</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>13822.70951</v>
+        <v>17044.95261</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>11891.03192</v>
+        <v>14364.04957</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>10821.71059</v>
+        <v>13857.39615</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>13241.86912</v>
+        <v>15346.78317</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>15324.90988</v>
+        <v>18176.57114</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>18763.69783</v>
+        <v>23161.97826</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>29231.0271</v>
+        <v>33148.18412</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>32836.59007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>36671.32095</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>42020.997</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>3771.12388</v>
+        <v>4353.523169999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1953.98434</v>
+        <v>2309.40146</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2514.40984</v>
+        <v>3052.8586</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2455.28064</v>
+        <v>2685.78497</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2376.59918</v>
+        <v>2503.786059999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1804.23901</v>
+        <v>2597.72387</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2238.06719</v>
+        <v>2859.85263</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>2666.46219</v>
+        <v>3370.13478</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>2148.52501</v>
+        <v>2926.27845</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>6674.12518</v>
+        <v>7710.27214</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>9705.75366</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>11522.72471</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>13910.474</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2714.45329</v>
+        <v>3250.7765</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1634.40771</v>
+        <v>1932.45044</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>2039.76471</v>
+        <v>2373.07064</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1698.60733</v>
+        <v>1910.60133</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1901.99445</v>
+        <v>2019.64149</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1374.0198</v>
+        <v>2104.01472</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1601.2512</v>
+        <v>2058.66712</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1894.33548</v>
+        <v>2140.20744</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1461.01228</v>
+        <v>2006.06711</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>4066.14771</v>
+        <v>4777.847940000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>7059.35974</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>8335.591699999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>10672.696</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1018.31653</v>
+        <v>1054.19261</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>267.40038</v>
+        <v>283.92093</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>290.9346399999999</v>
+        <v>496.0774699999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>612.3108000000001</v>
+        <v>630.82113</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>364.77101</v>
+        <v>374.31085</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>303.57648</v>
+        <v>315.63479</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>375.49926</v>
+        <v>442.09972</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>569.4697600000001</v>
+        <v>615.1940999999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>257.04766</v>
+        <v>341.40534</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1188.55838</v>
+        <v>1330.79802</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1472.33462</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1755.70124</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1625.22</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>38.35406</v>
+        <v>48.55406000000001</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>52.17625</v>
+        <v>93.03009</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>183.71049</v>
@@ -1238,349 +1179,394 @@
         <v>109.83372</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>126.64273</v>
+        <v>178.07436</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>261.31673</v>
+        <v>359.08579</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>202.65695</v>
+        <v>614.7332400000001</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>430.46507</v>
+        <v>578.806</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1419.41909</v>
+        <v>1601.62618</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1174.0593</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1431.43177</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1612.558</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>478061.3025</v>
+        <v>532768.3639799999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>483076.3375499999</v>
+        <v>555243.14665</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>603242.9726900001</v>
+        <v>662867.14586</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>551203.6614099999</v>
+        <v>611569.90824</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>492646.17128</v>
+        <v>551804.76411</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>492865.50511</v>
+        <v>561808.1075299999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>534051.57206</v>
+        <v>611287.64108</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>573116.44118</v>
+        <v>653098.9515</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>600885.7237000001</v>
+        <v>705893.88188</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1067189.94568</v>
+        <v>1180865.34092</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1219557.25278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1353603.89949</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1523643.245</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>243710.73033</v>
+        <v>263722.50189</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>256968.5975</v>
+        <v>284080.28055</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>319146.88939</v>
+        <v>342871.94862</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>284899.42926</v>
+        <v>311373.8897</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>260684.50999</v>
+        <v>284118.96714</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>252793.0991</v>
+        <v>281755.92891</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>274053.08427</v>
+        <v>306727.83475</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>297949.93095</v>
+        <v>335258.88529</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>309674.9677100001</v>
+        <v>361110.60771</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>548984.52422</v>
+        <v>601514.2518</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>633532.96488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>691114.72714</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>771976.482</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>7496.70937</v>
+        <v>7941.664060000001</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>6115.60031</v>
+        <v>6516.435439999999</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>10048.59655</v>
+        <v>10151.04176</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>4494.588769999999</v>
+        <v>4751.40967</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2660.18262</v>
+        <v>2668.93766</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>845.46433</v>
+        <v>854.0550900000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>389.7796</v>
+        <v>601.2541799999999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2279.35012</v>
+        <v>3451.82411</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>1150.07462</v>
+        <v>1325.59243</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>3728.64748</v>
+        <v>6199.00921</v>
       </c>
       <c r="M15" s="48" t="n">
         <v>10166.55813</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>7983.762</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>37334.27653</v>
+        <v>41424.43446</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>52173.10172</v>
+        <v>53456.28612</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>64005.82029</v>
+        <v>65571.07098999999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>40629.77221</v>
+        <v>42639.41941</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>36887.85174</v>
+        <v>39987.18729</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>11379.69705</v>
+        <v>14238.21547</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>33452.42625</v>
+        <v>35173.8059</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>11966.50114</v>
+        <v>14002.98773</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>8983.27607</v>
+        <v>13916.58993</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>23203.59637</v>
+        <v>26788.7167</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>24978.80369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>27658.49911</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>40887.943</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>197691.79938</v>
+        <v>213054.99443</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>197817.98917</v>
+        <v>223168.54085</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>243965.52747</v>
+        <v>265982.49157</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>238713.89822</v>
+        <v>262820.94825</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>220287.01466</v>
+        <v>240271.94208</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>239310.27265</v>
+        <v>265384.83503</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>237855.90462</v>
+        <v>268535.76938</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>280999.6690999999</v>
+        <v>314714.93583</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>297008.6032</v>
+        <v>342906.08005</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>518697.1758499999</v>
+        <v>563731.12324</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>594188.3936899999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>648262.79273</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>717154.041</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1187.94505</v>
+        <v>1301.40894</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>861.9063000000001</v>
+        <v>939.01814</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1126.94508</v>
+        <v>1167.3443</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1061.17006</v>
+        <v>1162.11237</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>849.46097</v>
+        <v>1190.90011</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1257.66507</v>
+        <v>1278.82332</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>2354.9738</v>
+        <v>2417.00529</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>2704.41059</v>
+        <v>3089.13762</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>2533.01382</v>
+        <v>2962.3453</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>3355.10452</v>
+        <v>4795.40265</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>4199.20937</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>5026.87717</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>5950.736</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>234350.57217</v>
+        <v>269045.86209</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>226107.74005</v>
+        <v>271162.8661</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>284096.0833</v>
+        <v>319995.19724</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>266304.23215</v>
+        <v>300196.01854</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>231961.66129</v>
+        <v>267685.79697</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>240072.40601</v>
+        <v>280052.17862</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>259998.48779</v>
+        <v>304559.80633</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>275166.51023</v>
+        <v>317840.06621</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>291210.75599</v>
+        <v>344783.27417</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>518205.42146</v>
+        <v>579351.08912</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>586024.2879</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>662489.1723499999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>751666.763</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>162960.26676</v>
+        <v>183886.59933</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>163753.5467</v>
+        <v>189655.24565</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>207958.92307</v>
+        <v>231830.67567</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>192927.07777</v>
+        <v>212523.32714</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>169662.98311</v>
+        <v>189562.68995</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>174765.23979</v>
+        <v>199835.75138</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>192149.31536</v>
+        <v>219811.75319</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>205021.77978</v>
+        <v>237932.78727</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>223259.36985</v>
+        <v>262851.1249</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>354524.91808</v>
+        <v>387117.47175</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>419728.52402</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>464683.57685</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>501214.663</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>784.54465</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>352.1197</v>
+        <v>472.88124</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>587.35942</v>
+        <v>775.5092100000001</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>703.3668699999999</v>
@@ -1589,13 +1575,13 @@
         <v>38.95174000000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>240.44165</v>
+        <v>312.77473</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>983.6108399999999</v>
+        <v>1139.80524</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>115.30442</v>
+        <v>151.99445</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>159.43085</v>
@@ -1606,233 +1592,263 @@
       <c r="M21" s="48" t="n">
         <v>916.7630600000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>619.537</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>7490.94654</v>
+        <v>8220.354740000001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>7021.63417</v>
+        <v>7811.22241</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>10929.74293</v>
+        <v>12291.89364</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>9132.55056</v>
+        <v>9761.300019999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>5963.37815</v>
+        <v>6723.55203</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>6710.94908</v>
+        <v>7531.25025</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>7368.31271</v>
+        <v>8465.435539999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>7378.48885</v>
+        <v>8541.18341</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>8846.111429999999</v>
+        <v>9849.500739999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>14261.61527</v>
+        <v>14602.48782</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>17288.82689</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>18856.32523</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>18628.199</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>154684.77557</v>
+        <v>174881.69994</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>156379.79283</v>
+        <v>181371.142</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>196441.82072</v>
+        <v>218763.27282</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>183091.16034</v>
+        <v>202058.66025</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>163660.65322</v>
+        <v>182800.18618</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>167813.84906</v>
+        <v>191991.7264</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>183797.39181</v>
+        <v>210206.51241</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>197527.98651</v>
+        <v>229239.60941</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>214253.82757</v>
+        <v>252842.19331</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>339969.99322</v>
+        <v>372221.67434</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>401522.93407</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>444910.48856</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>481966.927</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>71390.30541</v>
+        <v>85159.26276000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>62354.19335</v>
+        <v>81507.62045</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>76137.16023000001</v>
+        <v>88164.52157</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>73377.15437999999</v>
+        <v>87672.69140000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>62298.67818</v>
+        <v>78123.10702</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>65307.16622</v>
+        <v>80216.42723999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>67849.17243000001</v>
+        <v>84748.05314</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>70144.73045</v>
+        <v>79907.27894</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>67951.38614</v>
+        <v>81932.14927000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>163680.50338</v>
+        <v>192233.61737</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>166295.76388</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>197805.5955</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>250452.1</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>7195.46949</v>
+        <v>55239.18893</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>7234.28656</v>
+        <v>44695.22137000001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>12104.56839</v>
+        <v>26103.57764</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>7954.0487</v>
+        <v>23350.95411</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>8227.80565</v>
+        <v>20712.84247</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>7307.19325</v>
+        <v>25560.37606</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>8704.46982</v>
+        <v>45297.30450999999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>10167.39956</v>
+        <v>40916.78532</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>15793.01666</v>
+        <v>42725.42443</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>43931.27479</v>
+        <v>103756.66936</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>35484.62061999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>129538.57204</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>80517.12699999999</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>56.84703</v>
+        <v>5333.199550000001</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>304.3430299999999</v>
+        <v>3941.79282</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>269.4942</v>
+        <v>417.22579</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>15.99182</v>
+        <v>867.69862</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>155.16458</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1.43376</v>
+        <v>1231.55529</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>4.18204</v>
+        <v>11596.1659</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>3.5735</v>
+        <v>2777.94542</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>3.81756</v>
+        <v>3138.55582</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>8.97185</v>
+        <v>2375.32804</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1.476</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>8659.07228</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>1584.251</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>28.30176</v>
+        <v>12826.92473</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>2.82953</v>
+        <v>474.86494</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>300.00004</v>
+        <v>327.49129</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>2.97544</v>
+        <v>474.26035</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>1.21008</v>
+        <v>491.80339</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>184.85734</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>3556.41111</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>931.85358</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>0</v>
+        <v>13.78225</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1937.35854</v>
+        <v>21721.82171</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1604.4097</v>
+        <v>17612.50891</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>2280.07127</v>
+        <v>6535.20571</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2333.30537</v>
+        <v>7922.311890000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1904.3385</v>
+        <v>6609.02221</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1810.67321</v>
+        <v>5190.00504</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1998.94771</v>
+        <v>5884.946309999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1847.22391</v>
+        <v>5174.93573</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>2436.05978</v>
+        <v>6456.17026</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>9064.131850000002</v>
+        <v>14056.22632</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>9549.009510000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>16323.49621</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>17371.236</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>57.84716</v>
@@ -1892,19 +1918,19 @@
         <v>36.32047</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>27.68415</v>
+        <v>275.66888</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>220.27832</v>
+        <v>221.71749</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>24.23042</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>0.88723</v>
+        <v>0.9458200000000001</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>12.69432</v>
+        <v>16.12398</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>20.1292</v>
@@ -1918,134 +1944,154 @@
       <c r="M29" s="48" t="n">
         <v>72.70644</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>88.063</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>245.87261</v>
+        <v>272.13157</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>367.9644699999999</v>
+        <v>520.49424</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>833.4570799999999</v>
+        <v>1126.4961</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>216.56478</v>
+        <v>308.52174</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>383.89038</v>
+        <v>490.69911</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>740.00175</v>
+        <v>810.3095</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>165.69227</v>
+        <v>295.04721</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>156.29929</v>
+        <v>167.24523</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>468.7514</v>
+        <v>567.1724</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>790.09293</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>703.96973</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1470.22268</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>938.869</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>484.40532</v>
+        <v>4047.711769999999</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>338.18132</v>
+        <v>13387.76181</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>280.32179</v>
+        <v>669.0369600000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>481.2513000000001</v>
+        <v>3987.303559999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>301.72146</v>
+        <v>732.7841900000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>361.79441</v>
+        <v>1188.81786</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>288.24095</v>
+        <v>881.0366799999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>281.32827</v>
+        <v>651.94312</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>405.44455</v>
+        <v>740.91558</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1026.00882</v>
+        <v>1312.53984</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>2003.33444</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>2933.35392</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>2877.319</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2659.37524</v>
+        <v>8550.176160000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>2324.23529</v>
+        <v>5880.97089</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>4851.75223</v>
+        <v>13151.78605</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1688.93404</v>
+        <v>5701.49359</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>3239.231389999999</v>
+        <v>9519.680319999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1429.2313</v>
+        <v>10721.82427</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>3103.56844</v>
+        <v>17224.88766</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3459.72692</v>
+        <v>23114.20926</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>8036.196150000001</v>
+        <v>24376.57043</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>23644.16077</v>
+        <v>68868.42660999999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>12088.74654</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>82231.97228</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>38020.972</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>2.06022</v>
+        <v>43.30375</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>3.76432</v>
+        <v>24.81817</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>248.5199</v>
@@ -2054,10 +2100,10 @@
         <v>312.65215</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>7.86</v>
+        <v>13.51708</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>0.59861</v>
+        <v>1022.00685</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>3.39173</v>
@@ -2069,19 +2115,24 @@
         <v>19.0064</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>72.60392</v>
+        <v>188.45596</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>17.84994</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>161.78121</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>43.782</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>23.81321</v>
+        <v>33.81321</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>21.32308</v>
@@ -2111,253 +2162,288 @@
         <v>2.8125</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>28.69936</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>334.88532</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1699.5884</v>
+        <v>2352.25932</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>2230.91535</v>
+        <v>2794.36604</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2975.82546</v>
+        <v>3314.70469</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>2681.08645</v>
+        <v>3553.98569</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>2200.51899</v>
+        <v>2666.30132</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2939.14503</v>
+        <v>5186.62614</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>3121.31168</v>
+        <v>5832.85325</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>4392.118469999999</v>
+        <v>8071.52378</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>4423.15492</v>
+        <v>7412.665390000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>8876.864970000001</v>
+        <v>15717.15998</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>11018.82866</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>17351.0817</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>19592.635</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>5301.995629999999</v>
+        <v>14081.53394</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>4874.75818</v>
+        <v>9714.202140000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>8762.72436</v>
+        <v>15700.35536</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>4915.33906</v>
+        <v>10339.36381</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>4724.19252</v>
+        <v>7602.239769999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>4992.15905</v>
+        <v>22094.19922</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>6252.74476</v>
+        <v>44999.21152</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>7032.408729999999</v>
+        <v>54978.25814</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>10569.83181</v>
+        <v>42831.07926999999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>44070.40385</v>
+        <v>118112.40127</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>20059.17351</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>88631.07975</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>31388.388</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>339.06022</v>
+        <v>356.6289399999999</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>48.06375</v>
+        <v>84.98499000000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>70.86425</v>
+        <v>75.57452000000001</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>121.88607</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>59.20652</v>
+        <v>59.21177</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>170.96663</v>
+        <v>179.76663</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>260.82489</v>
+        <v>264.6813</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>291.54149</v>
+        <v>304.60812</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>235.43134</v>
+        <v>276.96125</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>351.41892</v>
+        <v>351.64837</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>624.7592</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>651.36946</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>233.94</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1749.9298</v>
+        <v>2390.39088</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1573.93688</v>
+        <v>2535.77264</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1925.41107</v>
+        <v>2067.97126</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1581.32853</v>
+        <v>1839.91525</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1655.32193</v>
+        <v>1875.89544</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1420.54083</v>
+        <v>1998.6079</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>2181.81718</v>
+        <v>2763.20859</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1983.7611</v>
+        <v>2058.04829</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>2003.36637</v>
+        <v>3308.35504</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>4600.82407</v>
+        <v>5291.304</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>4401.97638</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>7089.79013</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>5579.13</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>53.47971</v>
+        <v>70.79606</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>10.00545</v>
+        <v>50.60466</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>80.79199</v>
+        <v>144.83419</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>24.46256</v>
+        <v>65.53126</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>108.89564</v>
+        <v>224.96569</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>118.02911</v>
+        <v>122.90633</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>24.17756</v>
+        <v>26.58492</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>10.26676</v>
+        <v>72.90057</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>60.52022</v>
+        <v>63.30332</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>357.33518</v>
+        <v>358.693</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>1059.42874</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1156.88794</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>265.252</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>2677.24416</v>
+        <v>10648.62147</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2442.53149</v>
+        <v>6068.71376</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>3193.90861</v>
+        <v>9551.58988</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2085.88062</v>
+        <v>7166.43495</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1989.42889</v>
+        <v>4446.789070000001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1645.26383</v>
+        <v>16940.64046</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3011.4065</v>
+        <v>40689.13319</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2715.55864</v>
+        <v>49586.13286</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>7403.85601</v>
+        <v>37721.98991</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>20150.8429</v>
+        <v>92305.239</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>11416.65808</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>76250.18379</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>19923.568</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>0</v>
+        <v>41.24353</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>2.0323</v>
+        <v>63.82936</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>244.45237</v>
@@ -2369,7 +2455,7 @@
         <v>0.58923</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>1.5464</v>
+        <v>784.99511</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>0</v>
@@ -2381,16 +2467,21 @@
         <v>0.85768</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>63.82962999999999</v>
+        <v>174.28424</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>9.794459999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>146.78993</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>40.482</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>54.07902</v>
@@ -2425,362 +2516,412 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>428.2027200000001</v>
+        <v>519.77404</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>797.96068</v>
+        <v>910.0690999999999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>3247.29603</v>
+        <v>3615.9331</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>674.40151</v>
+        <v>718.21651</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>910.75024</v>
+        <v>994.7885</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1635.81225</v>
+        <v>2067.28279</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>774.5186299999999</v>
+        <v>1255.60352</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2027.73544</v>
+        <v>2953.023</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>841.2934399999999</v>
+        <v>1435.10532</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>18541.66904</v>
+        <v>19626.74855</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>2546.55665</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>3336.0585</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>5346.016</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>3436.45788</v>
+        <v>14437.98571</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>3199.90021</v>
+        <v>6381.366730000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>4201.92691</v>
+        <v>6118.850820000001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>4105.78143</v>
+        <v>6658.95202</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>3206.5193</v>
+        <v>5626.61821</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>3593.41393</v>
+        <v>6699.03859</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>3353.08865</v>
+        <v>6423.577069999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>4548.76242</v>
+        <v>9557.06567</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>4633.686019999999</v>
+        <v>11321.92587</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>11562.3741</v>
+        <v>21405.00283</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>12617.338</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>35181.70289</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>48848.965</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>3177.67995</v>
+        <v>12820.65195</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>3059.13578</v>
+        <v>5160.03775</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>3999.65851</v>
+        <v>5387.239509999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>4044.947099999999</v>
+        <v>6492.53581</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3081.30483</v>
+        <v>5478.69147</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>3527.63999</v>
+        <v>5613.32213</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>3263.32441</v>
+        <v>5459.751240000001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>4334.59345</v>
+        <v>9272.709570000001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>4466.760740000001</v>
+        <v>9741.78067</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>11220.88186</v>
+        <v>21000.10907</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>12153.8503</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>33324.84895</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>21602.112</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>258.77793</v>
+        <v>1617.33376</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>140.76443</v>
+        <v>1221.32898</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>202.2684</v>
+        <v>731.61131</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>60.83433</v>
+        <v>166.41621</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>125.21447</v>
+        <v>147.92674</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>65.77394</v>
+        <v>1085.71646</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>89.76424</v>
+        <v>963.8258300000001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>214.16897</v>
+        <v>284.3561</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>166.92528</v>
+        <v>1580.1452</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>341.49224</v>
+        <v>404.89376</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>463.4877</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1856.85394</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>27246.853</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>69847.32139</v>
+        <v>111878.93204</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>61513.82152</v>
+        <v>110107.27295</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>75277.07734999999</v>
+        <v>92448.89303000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>72310.08259000001</v>
+        <v>94025.32968</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>62595.77201</v>
+        <v>85607.09150999998</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>64028.78649</v>
+        <v>76983.56548999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>66947.80884</v>
+        <v>78622.56906000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>68730.95886</v>
+        <v>56288.74045</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>68540.88497</v>
+        <v>70504.56856</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>151979.00022</v>
+        <v>156472.88263</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>169103.87299</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>203531.3849</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>250731.874</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>6658.5325</v>
+        <v>7398.38209</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>5314.30491</v>
+        <v>6707.073810000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>6567.973410000001</v>
+        <v>7989.44192</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>6724.587</v>
+        <v>8141.759400000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>5937.81043</v>
+        <v>6888.48438</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>5277.692930000001</v>
+        <v>6507.25359</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>6391.84109</v>
+        <v>10496.11637</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>9355.710280000001</v>
+        <v>11685.42709</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>9405.0144</v>
+        <v>15090.03263</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>15155.76134</v>
+        <v>17291.08471</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>17914.25708</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>22548.71479</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>30960.405</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>79.80115000000001</v>
+        <v>79.95255999999999</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>263.19615</v>
+        <v>296.5264</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>228.83393</v>
+        <v>265.09012</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>161.22585</v>
+        <v>181.91923</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>126.10613</v>
+        <v>442.27916</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>101.67294</v>
+        <v>192.11596</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>165.46278</v>
+        <v>167.63504</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>35.3736</v>
+        <v>36.03856</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>132.35114</v>
+        <v>269.58515</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>143.4915</v>
+        <v>194.02461</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>130.81597</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>131.13886</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>493.028</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>6578.73135</v>
+        <v>7318.429529999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>5051.10876</v>
+        <v>6410.54741</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>6339.139480000001</v>
+        <v>7724.351799999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>6563.361150000001</v>
+        <v>7959.840169999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>5811.704299999999</v>
+        <v>6446.20522</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>5176.01999</v>
+        <v>6315.13763</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>6226.378310000001</v>
+        <v>10328.48133</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>9320.33668</v>
+        <v>11649.38853</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>9272.663259999999</v>
+        <v>14820.44748</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>15012.26984</v>
+        <v>17097.0601</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>17783.44111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>22417.57593</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>30467.377</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>9599.33901</v>
+        <v>10588.18606</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>6885.72634</v>
+        <v>7985.09433</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>154413.41439</v>
+        <v>169054.99725</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>7573.142470000001</v>
+        <v>9398.150300000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>5071.82285</v>
+        <v>6605.123259999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>35271.16225</v>
+        <v>43279.24221</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>5421.96722</v>
+        <v>7993.28477</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>65717.84827</v>
+        <v>79883.25959</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>9494.76259</v>
+        <v>13851.99201</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>108566.74948</v>
+        <v>117391.78069</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>19081.35847</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>21513.32174</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>31434.825</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>5.71443</v>
@@ -2792,13 +2933,13 @@
         <v>61.74578</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>13.80531</v>
+        <v>223.68188</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>1.53684</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>25.93727</v>
+        <v>109.14202</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>36.06214</v>
@@ -2807,211 +2948,239 @@
         <v>19.63091</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>215.08543</v>
+        <v>263.27832</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>89.81567</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1.68619</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>12.70339</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>20.882</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1628.9193</v>
+        <v>1630.37058</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>382.24288</v>
+        <v>464.37783</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1239.85737</v>
+        <v>1243.51873</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>536.9916899999999</v>
+        <v>545.75851</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>276.35832</v>
+        <v>297.89645</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>463.36386</v>
+        <v>504.92948</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>219.14808</v>
+        <v>338.1474</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>614.3435400000001</v>
+        <v>647.0454500000001</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>294.0747</v>
+        <v>349.5275</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>5486.0562</v>
+        <v>5732.210599999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>573.9459899999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>597.11186</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>684.976</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>7964.705279999999</v>
+        <v>8952.101050000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>6499.872260000001</v>
+        <v>7517.1053</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>153111.81124</v>
+        <v>167749.73274</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>7022.345470000001</v>
+        <v>8628.70991</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>4793.92769</v>
+        <v>6305.689969999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>34781.86111999999</v>
+        <v>42665.17071</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>5166.757</v>
+        <v>7619.07523</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>65083.87382</v>
+        <v>79216.58323</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>8985.60246</v>
+        <v>13239.18619</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>102990.87761</v>
+        <v>111569.75442</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>18505.72629</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>20903.50649</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>30728.967</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>66906.51488</v>
+        <v>108689.12807</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>59942.40009</v>
+        <v>108829.25243</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-72568.36363000001</v>
+        <v>-68616.66230000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>71461.52712</v>
+        <v>92768.93878</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>63461.75959</v>
+        <v>85890.45263</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>34035.31717</v>
+        <v>40211.57687</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>67917.68271000001</v>
+        <v>81125.40066</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>12368.82087</v>
+        <v>-11909.09205</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>68451.13678</v>
+        <v>71742.60918000001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>58568.01208</v>
+        <v>56372.18665</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>167936.7716</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>204566.77795</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>250257.454</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>15470.17068</v>
+        <v>22664.43884</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>14598.81389</v>
+        <v>22857.68949</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>17769.62143</v>
+        <v>21612.32819</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>17010.45451</v>
+        <v>21318.10667</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>14649.96181</v>
+        <v>19162.4101</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>15503.13369</v>
+        <v>19428.09649</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>15800.67591</v>
+        <v>20887.19706</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>17073.4122</v>
+        <v>20810.19953</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>16467.54374</v>
+        <v>21316.4106</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>38205.11357</v>
+        <v>45893.60162</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>44806.16154</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>52948.17761</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>65856.092</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>51436.3442</v>
+        <v>86024.68923</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>45343.5862</v>
+        <v>85971.56294</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-90337.98506000001</v>
+        <v>-90228.99049000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>54451.07261</v>
+        <v>71450.83211</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>48811.79778</v>
+        <v>66728.04253000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>18532.18348</v>
+        <v>20783.48038</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>52117.0068</v>
+        <v>60238.2036</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-4704.59133</v>
+        <v>-32719.29158</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>51983.59304000001</v>
+        <v>50426.19858</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>20362.89851</v>
+        <v>10478.58503</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>123130.61006</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>151618.60034</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>184401.362</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>3251</v>
+        <v>3377</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>3185</v>
+        <v>3349</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>3221</v>
+        <v>3354</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3099</v>
+        <v>3247</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2599</v>
+        <v>2746</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2527</v>
+        <v>2690</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2495</v>
+        <v>2691</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2567</v>
+        <v>2776</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>2658</v>
+        <v>2889</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3047</v>
+        <v>3229</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3214</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3461</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>